--- a/Examples/Soccer and Football 2/Translation Table.xlsx
+++ b/Examples/Soccer and Football 2/Translation Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\Examples\Soccer and Football 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CCBD75-76ED-4CD2-9409-CCCCBB464B7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6F558-36EE-449D-8A2F-C60E22A0C4FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{58E65451-6E4A-4A81-8922-783A14824F81}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,13 +637,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
@@ -654,13 +654,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
